--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_2006.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_2006.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>344.58999999999997</t>
+          <t>344.59</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>133094.32000000001</t>
+          <t>133094.32</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>21863.799999999999</t>
+          <t>21863.8</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>3838.9200000000001</t>
+          <t>3838.92</t>
         </is>
       </c>
       <c r="E29" s="0" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>137268.51999999999</t>
+          <t>137268.52</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>2183.7199999999998</t>
+          <t>2183.72</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>7675.5200000000004</t>
+          <t>7675.52</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>292.04000000000002</t>
+          <t>292.04</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>93.930000000000007</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>8668.1399999999994</t>
+          <t>8668.14</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="D49" s="0" t="inlineStr">
         <is>
-          <t>147.36000000000001</t>
+          <t>147.36</t>
         </is>
       </c>
       <c r="E49" s="0" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>2836.4099999999999</t>
+          <t>2836.41</t>
         </is>
       </c>
       <c r="E51" s="0" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>872.49000000000001</t>
+          <t>872.49</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>774.95000000000005</t>
+          <t>774.95</t>
         </is>
       </c>
       <c r="E54" s="0" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
-          <t>2172.8800000000001</t>
+          <t>2172.88</t>
         </is>
       </c>
       <c r="E57" s="0" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
-          <t>28781.470000000001</t>
+          <t>28781.47</t>
         </is>
       </c>
       <c r="E65" s="0" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>213124.73000000001</t>
+          <t>213124.73</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>747.44000000000005</t>
+          <t>747.44</t>
         </is>
       </c>
       <c r="E69" s="0" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>3684.3899999999999</t>
+          <t>3684.39</t>
         </is>
       </c>
       <c r="E70" s="0" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>704.72000000000003</t>
+          <t>704.72</t>
         </is>
       </c>
       <c r="E71" s="0" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="D72" s="0" t="inlineStr">
         <is>
-          <t>789.47000000000003</t>
+          <t>789.47</t>
         </is>
       </c>
       <c r="E72" s="0" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>33648.309999999998</t>
+          <t>33648.31</t>
         </is>
       </c>
       <c r="E73" s="0" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>3105.0999999999999</t>
+          <t>3105.1</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>161241.42000000001</t>
+          <t>161241.42</t>
         </is>
       </c>
       <c r="E75" s="0" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>534.59000000000003</t>
+          <t>534.59</t>
         </is>
       </c>
       <c r="E76" s="0" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
-          <t>56.020000000000003</t>
+          <t>56.02</t>
         </is>
       </c>
       <c r="E82" s="0" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>53399.589999999997</t>
+          <t>53399.59</t>
         </is>
       </c>
       <c r="E84" s="0" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="D86" s="0" t="inlineStr">
         <is>
-          <t>325.42000000000002</t>
+          <t>325.42</t>
         </is>
       </c>
       <c r="E86" s="0" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>58800.029999999999</t>
+          <t>58800.03</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>26591.740000000002</t>
+          <t>26591.74</t>
         </is>
       </c>
       <c r="E89" s="0" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="D91" s="0" t="inlineStr">
         <is>
-          <t>4188.8800000000001</t>
+          <t>4188.88</t>
         </is>
       </c>
       <c r="E91" s="0" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>24283.259999999998</t>
+          <t>24283.26</t>
         </is>
       </c>
       <c r="E100" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>8360.4099999999999</t>
+          <t>8360.41</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="D109" s="0" t="inlineStr">
         <is>
-          <t>11.130000000000001</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="E109" s="0" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="D113" s="0" t="inlineStr">
         <is>
-          <t>21780.919999999998</t>
+          <t>21780.92</t>
         </is>
       </c>
       <c r="E113" s="0" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>1051260.9199999999</t>
+          <t>1051260.92</t>
         </is>
       </c>
       <c r="E114" s="0" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
-          <t>311459.73999999999</t>
+          <t>311459.74</t>
         </is>
       </c>
       <c r="E115" s="0" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="D122" s="0" t="inlineStr">
         <is>
-          <t>8463.1900000000005</t>
+          <t>8463.19</t>
         </is>
       </c>
       <c r="E122" s="0" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="D141" s="0" t="inlineStr">
         <is>
-          <t>84.530000000000001</t>
+          <t>84.53</t>
         </is>
       </c>
       <c r="E141" s="0" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="D144" s="0" t="inlineStr">
         <is>
-          <t>69.519999999999996</t>
+          <t>69.52</t>
         </is>
       </c>
       <c r="E144" s="0" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>75461.009999999995</t>
+          <t>75461.01</t>
         </is>
       </c>
       <c r="E146" s="0" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D155" s="0" t="inlineStr">
         <is>
-          <t>5398107.1200000001</t>
+          <t>5398107.12</t>
         </is>
       </c>
       <c r="E155" s="0" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>2827516.4500000002</t>
+          <t>2827516.45</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D157" s="0" t="inlineStr">
         <is>
-          <t>64903.160000000003</t>
+          <t>64903.16</t>
         </is>
       </c>
       <c r="E157" s="0" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="D158" s="0" t="inlineStr">
         <is>
-          <t>1830757.1899999999</t>
+          <t>1830757.19</t>
         </is>
       </c>
       <c r="E158" s="0" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D160" s="0" t="inlineStr">
         <is>
-          <t>16764.639999999999</t>
+          <t>16764.64</t>
         </is>
       </c>
       <c r="E160" s="0" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D162" s="0" t="inlineStr">
         <is>
-          <t>216489.54999999999</t>
+          <t>216489.55</t>
         </is>
       </c>
       <c r="E162" s="0" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="D164" s="0" t="inlineStr">
         <is>
-          <t>1438753.3400000001</t>
+          <t>1438753.34</t>
         </is>
       </c>
       <c r="E164" s="0" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>3985509.1800000002</t>
+          <t>3985509.18</t>
         </is>
       </c>
       <c r="E166" s="0" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D167" s="0" t="inlineStr">
         <is>
-          <t>2257972.5699999998</t>
+          <t>2257972.57</t>
         </is>
       </c>
       <c r="E167" s="0" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D168" s="0" t="inlineStr">
         <is>
-          <t>261027.64000000001</t>
+          <t>261027.64</t>
         </is>
       </c>
       <c r="E168" s="0" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D170" s="0" t="inlineStr">
         <is>
-          <t>114131.17999999999</t>
+          <t>114131.18</t>
         </is>
       </c>
       <c r="E170" s="0" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="D171" s="0" t="inlineStr">
         <is>
-          <t>2874675.7400000002</t>
+          <t>2874675.74</t>
         </is>
       </c>
       <c r="E171" s="0" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D172" s="0" t="inlineStr">
         <is>
-          <t>599472.21999999997</t>
+          <t>599472.22</t>
         </is>
       </c>
       <c r="E172" s="0" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="D173" s="0" t="inlineStr">
         <is>
-          <t>239804.67999999999</t>
+          <t>239804.68</t>
         </is>
       </c>
       <c r="E173" s="0" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D174" s="0" t="inlineStr">
         <is>
-          <t>33108.910000000003</t>
+          <t>33108.91</t>
         </is>
       </c>
       <c r="E174" s="0" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="D175" s="0" t="inlineStr">
         <is>
-          <t>195251.10000000001</t>
+          <t>195251.1</t>
         </is>
       </c>
       <c r="E175" s="0" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D176" s="0" t="inlineStr">
         <is>
-          <t>469857.91999999998</t>
+          <t>469857.92</t>
         </is>
       </c>
       <c r="E176" s="0" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="D177" s="0" t="inlineStr">
         <is>
-          <t>60831.349999999999</t>
+          <t>60831.35</t>
         </is>
       </c>
       <c r="E177" s="0" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="D178" s="0" t="inlineStr">
         <is>
-          <t>17362.419999999998</t>
+          <t>17362.42</t>
         </is>
       </c>
       <c r="E178" s="0" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D179" s="0" t="inlineStr">
         <is>
-          <t>397538.58000000002</t>
+          <t>397538.58</t>
         </is>
       </c>
       <c r="E179" s="0" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="D180" s="0" t="inlineStr">
         <is>
-          <t>55157.489999999998</t>
+          <t>55157.49</t>
         </is>
       </c>
       <c r="E180" s="0" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="D181" s="0" t="inlineStr">
         <is>
-          <t>5843.2700000000004</t>
+          <t>5843.27</t>
         </is>
       </c>
       <c r="E181" s="0" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D182" s="0" t="inlineStr">
         <is>
-          <t>958052.42000000004</t>
+          <t>958052.42</t>
         </is>
       </c>
       <c r="E182" s="0" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D183" s="0" t="inlineStr">
         <is>
-          <t>74290.699999999997</t>
+          <t>74290.7</t>
         </is>
       </c>
       <c r="E183" s="0" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t>90233.240000000005</t>
+          <t>90233.24</t>
         </is>
       </c>
       <c r="E184" s="0" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="D185" s="0" t="inlineStr">
         <is>
-          <t>95802.740000000005</t>
+          <t>95802.74</t>
         </is>
       </c>
       <c r="E185" s="0" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="D187" s="0" t="inlineStr">
         <is>
-          <t>38674.660000000003</t>
+          <t>38674.66</t>
         </is>
       </c>
       <c r="E187" s="0" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="D188" s="0" t="inlineStr">
         <is>
-          <t>244003.32999999999</t>
+          <t>244003.33</t>
         </is>
       </c>
       <c r="E188" s="0" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D189" s="0" t="inlineStr">
         <is>
-          <t>376760.89000000001</t>
+          <t>376760.89</t>
         </is>
       </c>
       <c r="E189" s="0" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="D191" s="0" t="inlineStr">
         <is>
-          <t>603306.42000000004</t>
+          <t>603306.42</t>
         </is>
       </c>
       <c r="E191" s="0" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="D192" s="0" t="inlineStr">
         <is>
-          <t>6811.3800000000001</t>
+          <t>6811.38</t>
         </is>
       </c>
       <c r="E192" s="0" t="inlineStr">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="D197" s="0" t="inlineStr">
         <is>
-          <t>94.049999999999997</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="E197" s="0" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="D198" s="0" t="inlineStr">
         <is>
-          <t>468.35000000000002</t>
+          <t>468.35</t>
         </is>
       </c>
       <c r="E198" s="0" t="inlineStr">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="D199" s="0" t="inlineStr">
         <is>
-          <t>156393.29999999999</t>
+          <t>156393.3</t>
         </is>
       </c>
       <c r="E199" s="0" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="D200" s="0" t="inlineStr">
         <is>
-          <t>1961.8099999999999</t>
+          <t>1961.81</t>
         </is>
       </c>
       <c r="E200" s="0" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="D201" s="0" t="inlineStr">
         <is>
-          <t>6896.8900000000003</t>
+          <t>6896.89</t>
         </is>
       </c>
       <c r="E201" s="0" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D204" s="0" t="inlineStr">
         <is>
-          <t>95.530000000000001</t>
+          <t>95.53</t>
         </is>
       </c>
       <c r="E204" s="0" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="D205" s="0" t="inlineStr">
         <is>
-          <t>104.84999999999999</t>
+          <t>104.85</t>
         </is>
       </c>
       <c r="E205" s="0" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D206" s="0" t="inlineStr">
         <is>
-          <t>19530.279999999999</t>
+          <t>19530.28</t>
         </is>
       </c>
       <c r="E206" s="0" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="D212" s="0" t="inlineStr">
         <is>
-          <t>4186.8000000000002</t>
+          <t>4186.8</t>
         </is>
       </c>
       <c r="E212" s="0" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="D214" s="0" t="inlineStr">
         <is>
-          <t>11279.200000000001</t>
+          <t>11279.2</t>
         </is>
       </c>
       <c r="E214" s="0" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D216" s="0" t="inlineStr">
         <is>
-          <t>12.640000000000001</t>
+          <t>12.64</t>
         </is>
       </c>
       <c r="E216" s="0" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="D218" s="0" t="inlineStr">
         <is>
-          <t>23007.110000000001</t>
+          <t>23007.11</t>
         </is>
       </c>
       <c r="E218" s="0" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="D219" s="0" t="inlineStr">
         <is>
-          <t>57296.290000000001</t>
+          <t>57296.29</t>
         </is>
       </c>
       <c r="E219" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D221" s="0" t="inlineStr">
         <is>
-          <t>4412.1999999999998</t>
+          <t>4412.2</t>
         </is>
       </c>
       <c r="E221" s="0" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="D225" s="0" t="inlineStr">
         <is>
-          <t>1182.1300000000001</t>
+          <t>1182.13</t>
         </is>
       </c>
       <c r="E225" s="0" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="D229" s="0" t="inlineStr">
         <is>
-          <t>54654.610000000001</t>
+          <t>54654.61</t>
         </is>
       </c>
       <c r="E229" s="0" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D230" s="0" t="inlineStr">
         <is>
-          <t>10078.690000000001</t>
+          <t>10078.69</t>
         </is>
       </c>
       <c r="E230" s="0" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="D232" s="0" t="inlineStr">
         <is>
-          <t>368.82999999999998</t>
+          <t>368.83</t>
         </is>
       </c>
       <c r="E232" s="0" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="D236" s="0" t="inlineStr">
         <is>
-          <t>20124.389999999999</t>
+          <t>20124.39</t>
         </is>
       </c>
       <c r="E236" s="0" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>48967.050000000003</t>
+          <t>48967.05</t>
         </is>
       </c>
       <c r="E237" s="0" t="inlineStr">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="D238" s="0" t="inlineStr">
         <is>
-          <t>261815.82000000001</t>
+          <t>261815.82</t>
         </is>
       </c>
       <c r="E238" s="0" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="D239" s="0" t="inlineStr">
         <is>
-          <t>1651.9100000000001</t>
+          <t>1651.91</t>
         </is>
       </c>
       <c r="E239" s="0" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D244" s="0" t="inlineStr">
         <is>
-          <t>2052.3299999999999</t>
+          <t>2052.33</t>
         </is>
       </c>
       <c r="E244" s="0" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="D245" s="0" t="inlineStr">
         <is>
-          <t>5.5499999999999998</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="E245" s="0" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="D256" s="0" t="inlineStr">
         <is>
-          <t>1551225.6599999999</t>
+          <t>1551225.66</t>
         </is>
       </c>
       <c r="E256" s="0" t="inlineStr">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="D257" s="0" t="inlineStr">
         <is>
-          <t>77675.820000000007</t>
+          <t>77675.82</t>
         </is>
       </c>
       <c r="E257" s="0" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="D258" s="0" t="inlineStr">
         <is>
-          <t>53997.720000000001</t>
+          <t>53997.72</t>
         </is>
       </c>
       <c r="E258" s="0" t="inlineStr">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="D261" s="0" t="inlineStr">
         <is>
-          <t>4211.3000000000002</t>
+          <t>4211.3</t>
         </is>
       </c>
       <c r="E261" s="0" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="D263" s="0" t="inlineStr">
         <is>
-          <t>410.49000000000001</t>
+          <t>410.49</t>
         </is>
       </c>
       <c r="E263" s="0" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="D266" s="0" t="inlineStr">
         <is>
-          <t>43962.650000000001</t>
+          <t>43962.65</t>
         </is>
       </c>
       <c r="E266" s="0" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="D273" s="0" t="inlineStr">
         <is>
-          <t>22946.419999999998</t>
+          <t>22946.42</t>
         </is>
       </c>
       <c r="E273" s="0" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="D275" s="0" t="inlineStr">
         <is>
-          <t>1884.1800000000001</t>
+          <t>1884.18</t>
         </is>
       </c>
       <c r="E275" s="0" t="inlineStr">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="D276" s="0" t="inlineStr">
         <is>
-          <t>521.39999999999998</t>
+          <t>521.4</t>
         </is>
       </c>
       <c r="E276" s="0" t="inlineStr">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="D279" s="0" t="inlineStr">
         <is>
-          <t>3837.6300000000001</t>
+          <t>3837.63</t>
         </is>
       </c>
       <c r="E279" s="0" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="D284" s="0" t="inlineStr">
         <is>
-          <t>69200.960000000006</t>
+          <t>69200.96</t>
         </is>
       </c>
       <c r="E284" s="0" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="D285" s="0" t="inlineStr">
         <is>
-          <t>22172.419999999998</t>
+          <t>22172.42</t>
         </is>
       </c>
       <c r="E285" s="0" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="D288" s="0" t="inlineStr">
         <is>
-          <t>3385113.4399999999</t>
+          <t>3385113.44</t>
         </is>
       </c>
       <c r="E288" s="0" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="D291" s="0" t="inlineStr">
         <is>
-          <t>285316.54999999999</t>
+          <t>285316.55</t>
         </is>
       </c>
       <c r="E291" s="0" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="D312" s="0" t="inlineStr">
         <is>
-          <t>64288.989999999998</t>
+          <t>64288.99</t>
         </is>
       </c>
       <c r="E312" s="0" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="D313" s="0" t="inlineStr">
         <is>
-          <t>2222.9099999999999</t>
+          <t>2222.91</t>
         </is>
       </c>
       <c r="E313" s="0" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="D326" s="0" t="inlineStr">
         <is>
-          <t>189707.92999999999</t>
+          <t>189707.93</t>
         </is>
       </c>
       <c r="E326" s="0" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="D330" s="0" t="inlineStr">
         <is>
-          <t>16398208.369999999</t>
+          <t>16398208.37</t>
         </is>
       </c>
       <c r="E330" s="0" t="inlineStr">
@@ -9298,7 +9298,7 @@
       </c>
       <c r="D331" s="0" t="inlineStr">
         <is>
-          <t>26398.400000000001</t>
+          <t>26398.4</t>
         </is>
       </c>
       <c r="E331" s="0" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="D334" s="0" t="inlineStr">
         <is>
-          <t>261127.76000000001</t>
+          <t>261127.76</t>
         </is>
       </c>
       <c r="E334" s="0" t="inlineStr">
@@ -9487,7 +9487,7 @@
       </c>
       <c r="D338" s="0" t="inlineStr">
         <is>
-          <t>18167.939999999999</t>
+          <t>18167.94</t>
         </is>
       </c>
       <c r="E338" s="0" t="inlineStr">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="D339" s="0" t="inlineStr">
         <is>
-          <t>9964.7399999999998</t>
+          <t>9964.74</t>
         </is>
       </c>
       <c r="E339" s="0" t="inlineStr">
@@ -9838,7 +9838,7 @@
       </c>
       <c r="D351" s="0" t="inlineStr">
         <is>
-          <t>516.27999999999997</t>
+          <t>516.28</t>
         </is>
       </c>
       <c r="E351" s="0" t="inlineStr">
@@ -10000,7 +10000,7 @@
       </c>
       <c r="D357" s="0" t="inlineStr">
         <is>
-          <t>2642.9899999999998</t>
+          <t>2642.99</t>
         </is>
       </c>
       <c r="E357" s="0" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D370" s="0" t="inlineStr">
         <is>
-          <t>34003.209999999999</t>
+          <t>34003.21</t>
         </is>
       </c>
       <c r="E370" s="0" t="inlineStr">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="D371" s="0" t="inlineStr">
         <is>
-          <t>8.9999999999999997E-2</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E371" s="0" t="inlineStr">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="D373" s="0" t="inlineStr">
         <is>
-          <t>76700.690000000002</t>
+          <t>76700.69</t>
         </is>
       </c>
       <c r="E373" s="0" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="D380" s="0" t="inlineStr">
         <is>
-          <t>193392.98999999999</t>
+          <t>193392.99</t>
         </is>
       </c>
       <c r="E380" s="0" t="inlineStr">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="D383" s="0" t="inlineStr">
         <is>
-          <t>131214.54000000001</t>
+          <t>131214.54</t>
         </is>
       </c>
       <c r="E383" s="0" t="inlineStr">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="D386" s="0" t="inlineStr">
         <is>
-          <t>2992.5599999999999</t>
+          <t>2992.56</t>
         </is>
       </c>
       <c r="E386" s="0" t="inlineStr">
@@ -10810,7 +10810,7 @@
       </c>
       <c r="D387" s="0" t="inlineStr">
         <is>
-          <t>6651.0200000000004</t>
+          <t>6651.02</t>
         </is>
       </c>
       <c r="E387" s="0" t="inlineStr">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="D424" s="0" t="inlineStr">
         <is>
-          <t>48.219999999999999</t>
+          <t>48.22</t>
         </is>
       </c>
       <c r="E424" s="0" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="D426" s="0" t="inlineStr">
         <is>
-          <t>32.149999999999999</t>
+          <t>32.15</t>
         </is>
       </c>
       <c r="E426" s="0" t="inlineStr">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="D442" s="0" t="inlineStr">
         <is>
-          <t>134.24000000000001</t>
+          <t>134.24</t>
         </is>
       </c>
       <c r="E442" s="0" t="inlineStr">
@@ -12349,7 +12349,7 @@
       </c>
       <c r="D444" s="0" t="inlineStr">
         <is>
-          <t>268.49000000000001</t>
+          <t>268.49</t>
         </is>
       </c>
       <c r="E444" s="0" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="D445" s="0" t="inlineStr">
         <is>
-          <t>2881.2399999999998</t>
+          <t>2881.24</t>
         </is>
       </c>
       <c r="E445" s="0" t="inlineStr">
@@ -12619,7 +12619,7 @@
       </c>
       <c r="D454" s="0" t="inlineStr">
         <is>
-          <t>3126.8899999999999</t>
+          <t>3126.89</t>
         </is>
       </c>
       <c r="E454" s="0" t="inlineStr">
@@ -12781,7 +12781,7 @@
       </c>
       <c r="D460" s="0" t="inlineStr">
         <is>
-          <t>1131.5699999999999</t>
+          <t>1131.57</t>
         </is>
       </c>
       <c r="E460" s="0" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="D461" s="0" t="inlineStr">
         <is>
-          <t>28.010000000000002</t>
+          <t>28.01</t>
         </is>
       </c>
       <c r="E461" s="0" t="inlineStr">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="D462" s="0" t="inlineStr">
         <is>
-          <t>37140.080000000002</t>
+          <t>37140.08</t>
         </is>
       </c>
       <c r="E462" s="0" t="inlineStr">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="D463" s="0" t="inlineStr">
         <is>
-          <t>3385.0300000000002</t>
+          <t>3385.03</t>
         </is>
       </c>
       <c r="E463" s="0" t="inlineStr">
@@ -12997,7 +12997,7 @@
       </c>
       <c r="D468" s="0" t="inlineStr">
         <is>
-          <t>6747.5900000000001</t>
+          <t>6747.59</t>
         </is>
       </c>
       <c r="E468" s="0" t="inlineStr">
@@ -13051,7 +13051,7 @@
       </c>
       <c r="D470" s="0" t="inlineStr">
         <is>
-          <t>668.89999999999998</t>
+          <t>668.9</t>
         </is>
       </c>
       <c r="E470" s="0" t="inlineStr">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="D471" s="0" t="inlineStr">
         <is>
-          <t>2199.5100000000002</t>
+          <t>2199.51</t>
         </is>
       </c>
       <c r="E471" s="0" t="inlineStr">
@@ -13699,7 +13699,7 @@
       </c>
       <c r="D494" s="0" t="inlineStr">
         <is>
-          <t>6.0199999999999996</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="E494" s="0" t="inlineStr">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="D496" s="0" t="inlineStr">
         <is>
-          <t>14.130000000000001</t>
+          <t>14.13</t>
         </is>
       </c>
       <c r="E496" s="0" t="inlineStr">
@@ -13942,7 +13942,7 @@
       </c>
       <c r="D503" s="0" t="inlineStr">
         <is>
-          <t>6916.4700000000003</t>
+          <t>6916.47</t>
         </is>
       </c>
       <c r="E503" s="0" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="D505" s="0" t="inlineStr">
         <is>
-          <t>26590.560000000001</t>
+          <t>26590.56</t>
         </is>
       </c>
       <c r="E505" s="0" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="D507" s="0" t="inlineStr">
         <is>
-          <t>7561.5500000000002</t>
+          <t>7561.55</t>
         </is>
       </c>
       <c r="E507" s="0" t="inlineStr">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="D512" s="0" t="inlineStr">
         <is>
-          <t>21678.490000000002</t>
+          <t>21678.49</t>
         </is>
       </c>
       <c r="E512" s="0" t="inlineStr">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="D531" s="0" t="inlineStr">
         <is>
-          <t>22784.799999999999</t>
+          <t>22784.8</t>
         </is>
       </c>
       <c r="E531" s="0" t="inlineStr">
@@ -14725,7 +14725,7 @@
       </c>
       <c r="D532" s="0" t="inlineStr">
         <is>
-          <t>1716.8099999999999</t>
+          <t>1716.81</t>
         </is>
       </c>
       <c r="E532" s="0" t="inlineStr">
@@ -15076,7 +15076,7 @@
       </c>
       <c r="D545" s="0" t="inlineStr">
         <is>
-          <t>123276.50999999999</t>
+          <t>123276.51</t>
         </is>
       </c>
       <c r="E545" s="0" t="inlineStr">
@@ -15157,7 +15157,7 @@
       </c>
       <c r="D548" s="0" t="inlineStr">
         <is>
-          <t>66.180000000000007</t>
+          <t>66.18</t>
         </is>
       </c>
       <c r="E548" s="0" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="D575" s="0" t="inlineStr">
         <is>
-          <t>550398.98999999999</t>
+          <t>550398.99</t>
         </is>
       </c>
       <c r="E575" s="0" t="inlineStr">
@@ -15967,7 +15967,7 @@
       </c>
       <c r="D578" s="0" t="inlineStr">
         <is>
-          <t>62.310000000000002</t>
+          <t>62.31</t>
         </is>
       </c>
       <c r="E578" s="0" t="inlineStr">
@@ -15994,7 +15994,7 @@
       </c>
       <c r="D579" s="0" t="inlineStr">
         <is>
-          <t>42.770000000000003</t>
+          <t>42.77</t>
         </is>
       </c>
       <c r="E579" s="0" t="inlineStr">
@@ -16102,7 +16102,7 @@
       </c>
       <c r="D583" s="0" t="inlineStr">
         <is>
-          <t>71.069999999999993</t>
+          <t>71.07</t>
         </is>
       </c>
       <c r="E583" s="0" t="inlineStr">
@@ -16156,7 +16156,7 @@
       </c>
       <c r="D585" s="0" t="inlineStr">
         <is>
-          <t>2049.8299999999999</t>
+          <t>2049.83</t>
         </is>
       </c>
       <c r="E585" s="0" t="inlineStr">
@@ -16453,7 +16453,7 @@
       </c>
       <c r="D596" s="0" t="inlineStr">
         <is>
-          <t>9156.8400000000001</t>
+          <t>9156.84</t>
         </is>
       </c>
       <c r="E596" s="0" t="inlineStr">
@@ -16588,7 +16588,7 @@
       </c>
       <c r="D601" s="0" t="inlineStr">
         <is>
-          <t>404.68000000000001</t>
+          <t>404.68</t>
         </is>
       </c>
       <c r="E601" s="0" t="inlineStr">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="D602" s="0" t="inlineStr">
         <is>
-          <t>966.94000000000005</t>
+          <t>966.94</t>
         </is>
       </c>
       <c r="E602" s="0" t="inlineStr">
@@ -16777,7 +16777,7 @@
       </c>
       <c r="D608" s="0" t="inlineStr">
         <is>
-          <t>584.63999999999999</t>
+          <t>584.64</t>
         </is>
       </c>
       <c r="E608" s="0" t="inlineStr">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="D609" s="0" t="inlineStr">
         <is>
-          <t>314.85000000000002</t>
+          <t>314.85</t>
         </is>
       </c>
       <c r="E609" s="0" t="inlineStr">
@@ -16831,7 +16831,7 @@
       </c>
       <c r="D610" s="0" t="inlineStr">
         <is>
-          <t>10303.610000000001</t>
+          <t>10303.61</t>
         </is>
       </c>
       <c r="E610" s="0" t="inlineStr">
@@ -16939,7 +16939,7 @@
       </c>
       <c r="D614" s="0" t="inlineStr">
         <is>
-          <t>93.780000000000001</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="E614" s="0" t="inlineStr">
@@ -17263,7 +17263,7 @@
       </c>
       <c r="D626" s="0" t="inlineStr">
         <is>
-          <t>3015.4699999999998</t>
+          <t>3015.47</t>
         </is>
       </c>
       <c r="E626" s="0" t="inlineStr">
@@ -17344,7 +17344,7 @@
       </c>
       <c r="D629" s="0" t="inlineStr">
         <is>
-          <t>6123.7299999999996</t>
+          <t>6123.73</t>
         </is>
       </c>
       <c r="E629" s="0" t="inlineStr">
@@ -17371,7 +17371,7 @@
       </c>
       <c r="D630" s="0" t="inlineStr">
         <is>
-          <t>6340.8699999999999</t>
+          <t>6340.87</t>
         </is>
       </c>
       <c r="E630" s="0" t="inlineStr">
@@ -17398,7 +17398,7 @@
       </c>
       <c r="D631" s="0" t="inlineStr">
         <is>
-          <t>10028.889999999999</t>
+          <t>10028.89</t>
         </is>
       </c>
       <c r="E631" s="0" t="inlineStr">
@@ -17533,7 +17533,7 @@
       </c>
       <c r="D636" s="0" t="inlineStr">
         <is>
-          <t>74.840000000000003</t>
+          <t>74.84</t>
         </is>
       </c>
       <c r="E636" s="0" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="D685" s="0" t="inlineStr">
         <is>
-          <t>50965.160000000003</t>
+          <t>50965.16</t>
         </is>
       </c>
       <c r="E685" s="0" t="inlineStr">
@@ -19018,7 +19018,7 @@
       </c>
       <c r="D691" s="0" t="inlineStr">
         <is>
-          <t>2898.3699999999999</t>
+          <t>2898.37</t>
         </is>
       </c>
       <c r="E691" s="0" t="inlineStr">
